--- a/Foreign_Countries_nCoV_2020.xlsx
+++ b/Foreign_Countries_nCoV_2020.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B51F85-00D4-8C40-8797-192C2BC0A323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E47289-7E3C-8F49-AD01-918226547EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" firstSheet="4" activeTab="9" xr2:uid="{923090BF-C972-2A42-BA4D-B2FC2C1E1E1B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" firstSheet="6" activeTab="15" xr2:uid="{923090BF-C972-2A42-BA4D-B2FC2C1E1E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="韩国" sheetId="3" r:id="rId1"/>
     <sheet name="日本" sheetId="1" r:id="rId2"/>
     <sheet name="新加坡" sheetId="6" r:id="rId3"/>
     <sheet name="意大利" sheetId="7" r:id="rId4"/>
-    <sheet name="德国" sheetId="10" r:id="rId5"/>
-    <sheet name="法国" sheetId="9" r:id="rId6"/>
-    <sheet name="西班牙" sheetId="12" r:id="rId7"/>
+    <sheet name="法国" sheetId="9" r:id="rId5"/>
+    <sheet name="西班牙" sheetId="12" r:id="rId6"/>
+    <sheet name="德国" sheetId="10" r:id="rId7"/>
     <sheet name="瑞士" sheetId="14" r:id="rId8"/>
     <sheet name="英国" sheetId="11" r:id="rId9"/>
     <sheet name="荷兰" sheetId="16" r:id="rId10"/>
-    <sheet name="泰国" sheetId="4" r:id="rId11"/>
-    <sheet name="印度" sheetId="13" r:id="rId12"/>
-    <sheet name="伊朗" sheetId="8" r:id="rId13"/>
-    <sheet name="美国" sheetId="5" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId15"/>
+    <sheet name="瑞典" sheetId="17" r:id="rId11"/>
+    <sheet name="丹麦" sheetId="18" r:id="rId12"/>
+    <sheet name="泰国" sheetId="4" r:id="rId13"/>
+    <sheet name="印度" sheetId="13" r:id="rId14"/>
+    <sheet name="伊朗" sheetId="8" r:id="rId15"/>
+    <sheet name="美国" sheetId="5" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="8">
   <si>
     <t>疑似</t>
   </si>
@@ -113,19 +115,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -154,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -163,6 +159,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E4E93-CB02-3047-9EA8-E99825360D46}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:C51"/>
+    <sheetView topLeftCell="A48" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1353,7 @@
         <v>43893</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f>IMSUB(F46,F45)</f>
+        <f t="shared" ref="B46:B51" si="2">IMSUB(F46,F45)</f>
         <v>600</v>
       </c>
       <c r="C46" s="3" t="str">
@@ -1373,7 +1372,7 @@
         <v>43894</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f>IMSUB(F47,F46)</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="C47" s="3" t="str">
@@ -1392,7 +1391,7 @@
         <v>43895</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f>IMSUB(F48,F47)</f>
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
       <c r="C48" s="3" t="str">
@@ -1411,7 +1410,7 @@
         <v>43896</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f>IMSUB(F49,F48)</f>
+        <f t="shared" si="2"/>
         <v>518</v>
       </c>
       <c r="C49" s="3" t="str">
@@ -1430,11 +1429,11 @@
         <v>43897</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f>IMSUB(F50,F49)</f>
+        <f t="shared" si="2"/>
         <v>483</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f t="shared" ref="C50" si="2">IMSUB(G50,G49)</f>
+        <f t="shared" ref="C50" si="3">IMSUB(G50,G49)</f>
         <v>2</v>
       </c>
       <c r="F50">
@@ -1449,11 +1448,11 @@
         <v>43898</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f>IMSUB(F51,F50)</f>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f t="shared" ref="C51" si="3">IMSUB(G51,G50)</f>
+        <f t="shared" ref="C51" si="4">IMSUB(G51,G50)</f>
         <v>6</v>
       </c>
       <c r="F51">
@@ -1467,20 +1466,76 @@
       <c r="A52" s="1">
         <v>43899</v>
       </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" ref="B52" si="5">IMSUB(F52,F51)</f>
+        <v>248</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" ref="C52" si="6">IMSUB(G52,G51)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>7382</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43900</v>
       </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" ref="B53" si="7">IMSUB(F53,F52)</f>
+        <v>131</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" ref="C53" si="8">IMSUB(G53,G52)</f>
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>7513</v>
+      </c>
+      <c r="G53">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43901</v>
       </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" ref="B54" si="9">IMSUB(F54,F53)</f>
+        <v>242</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" ref="C54" si="10">IMSUB(G54,G53)</f>
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>7755</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43902</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" ref="B55" si="11">IMSUB(F55,F54)</f>
+        <v>114</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" ref="C55" si="12">IMSUB(G55,G54)</f>
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>7869</v>
+      </c>
+      <c r="G55">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83A5A8D-CFB7-2E4D-9938-0E5F037F8A72}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,20 +1785,76 @@
       <c r="A13" s="1">
         <v>43899</v>
       </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" ref="B13" si="2">IMSUB(F13,F12)</f>
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" ref="C13" si="3">IMSUB(G13,G12)</f>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>265</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" ref="B14" si="4">IMSUB(F14,F13)</f>
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" ref="C14" si="5">IMSUB(G14,G13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>321</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" ref="B15" si="6">IMSUB(F15,F14)</f>
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" ref="C15" si="7">IMSUB(G15,G14)</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>382</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43902</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" ref="B16" si="8">IMSUB(F16,F15)</f>
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" ref="C16" si="9">IMSUB(G16,G15)</f>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>503</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1772,11 +1883,1191 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D65B05-C51C-E349-B76B-378640ECAA2A}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43862</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IMSUB(F4,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>IMSUB(G4,G3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ref="B5:B40" si="0">IMSUB(F5,F4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C40" si="1">IMSUB(G5,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>137</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>161</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>203</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41" si="2">IMSUB(F41,F40)</f>
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" ref="C41" si="3">IMSUB(G41,G40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>248</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ref="B42" si="4">IMSUB(F42,F41)</f>
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" ref="C42" si="5">IMSUB(G42,G41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>326</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ref="B43" si="6">IMSUB(F43,F42)</f>
+        <v>135</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" ref="C43" si="7">IMSUB(G43,G42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>461</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9804E90-1F28-1045-AF00-7ACC55286C04}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IMSUB(F4,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>IMSUB(G4,G3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ref="B5:B16" si="0">IMSUB(F5,F4)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C16" si="1">IMSUB(G5,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>262</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" ref="B17" si="2">IMSUB(F17,F16)</f>
+        <v>353</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" ref="C17" si="3">IMSUB(G17,G16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>615</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD585C5-F934-CC4A-B61E-52BAD3356B13}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:C51"/>
+      <selection activeCell="B54" sqref="B54:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2740,20 +4031,76 @@
       <c r="A52" s="1">
         <v>43899</v>
       </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" ref="B52" si="8">IMSUB(F52,F51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" ref="C52" si="9">IMSUB(G52,G51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43900</v>
       </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" ref="B53" si="10">IMSUB(F53,F52)</f>
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" ref="C53" si="11">IMSUB(G53,G52)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43901</v>
       </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" ref="B54" si="12">IMSUB(F54,F53)</f>
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" ref="C54" si="13">IMSUB(G54,G53)</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>59</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43902</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" ref="B55" si="14">IMSUB(F55,F54)</f>
+        <v>11</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" ref="C55" si="15">IMSUB(G55,G54)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2761,12 +4108,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C32909D-5E29-164D-9163-CD8136A5EF28}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:C41"/>
+      <selection activeCell="B44" sqref="B44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3541,20 +4888,76 @@
       <c r="A42" s="1">
         <v>43899</v>
       </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ref="B42" si="6">IMSUB(F42,F41)</f>
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" ref="C42" si="7">IMSUB(G42,G41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43900</v>
       </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ref="B43" si="8">IMSUB(F43,F42)</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" ref="C43" si="9">IMSUB(G43,G42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>44</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43901</v>
       </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" ref="B44" si="10">IMSUB(F44,F43)</f>
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" ref="C44" si="11">IMSUB(G44,G43)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43902</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" ref="B45" si="12">IMSUB(F45,F44)</f>
+        <v>13</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" ref="C45" si="13">IMSUB(G45,G44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3567,12 +4970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC88DB6-9092-AA40-8E94-D18A303167DE}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C20"/>
+    <sheetView topLeftCell="A18" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3946,20 +5349,76 @@
       <c r="A21" s="1">
         <v>43899</v>
       </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" ref="B21" si="7">IMSUB(F21,F20)</f>
+        <v>743</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" ref="C21" si="8">IMSUB(G21,G20)</f>
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>6566</v>
+      </c>
+      <c r="G21">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43900</v>
       </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" ref="B22" si="9">IMSUB(F22,F21)</f>
+        <v>595</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" ref="C22" si="10">IMSUB(G22,G21)</f>
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>7161</v>
+      </c>
+      <c r="G22">
+        <v>237</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43901</v>
       </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" ref="B23" si="11">IMSUB(F23,F22)</f>
+        <v>881</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" ref="C23" si="12">IMSUB(G23,G22)</f>
+        <v>54</v>
+      </c>
+      <c r="F23">
+        <v>8042</v>
+      </c>
+      <c r="G23">
+        <v>291</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43902</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" ref="B24" si="13">IMSUB(F24,F23)</f>
+        <v>958</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" ref="C24" si="14">IMSUB(G24,G23)</f>
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <v>9000</v>
+      </c>
+      <c r="G24">
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3972,12 +5431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372533E2-9407-6E44-BB15-2CEA0B5F9927}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4847,10 +6306,101 @@
       <c r="A47" s="1">
         <v>43899</v>
       </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" ref="B47" si="8">IMSUB(F47,F46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" ref="C47" si="9">IMSUB(G47,G46)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>213</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43900</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" ref="B48" si="10">IMSUB(F48,F47)</f>
+        <v>259</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" ref="C48" si="11">IMSUB(G48,G47)</f>
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>472</v>
+      </c>
+      <c r="G48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" ref="B49" si="12">IMSUB(F49,F48)</f>
+        <v>224</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" ref="C49" si="13">IMSUB(G49,G48)</f>
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>696</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" ref="B50" si="14">IMSUB(F50,F49)</f>
+        <v>291</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" ref="C50" si="15">IMSUB(G50,G49)</f>
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>987</v>
+      </c>
+      <c r="G50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43907</v>
       </c>
     </row>
   </sheetData>
@@ -4858,12 +6408,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D65B05-C51C-E349-B76B-378640ECAA2A}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002B2F2A-1CD6-8048-B998-195AF28715CF}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5190,10 +6740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76201B84-7380-2D40-9C5F-54772C6777F9}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A51" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6157,25 +7707,111 @@
       <c r="A52" s="1">
         <v>43899</v>
       </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" ref="B52" si="7">IMSUB(F52,F51)</f>
+        <v>33</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" ref="C52" si="8">IMSUB(G52,G51)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>488</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43900</v>
       </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" ref="B53" si="9">IMSUB(F53,F52)</f>
+        <v>26</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" ref="C53" si="10">IMSUB(G53,G52)</f>
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>514</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43901</v>
       </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" ref="B54" si="11">IMSUB(F54,F53)</f>
+        <v>54</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" ref="C54" si="12">IMSUB(G54,G53)</f>
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>568</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43902</v>
       </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" ref="B55" si="13">IMSUB(F55,F54)</f>
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" ref="C55" si="14">IMSUB(G55,G54)</f>
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>620</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43909</v>
       </c>
     </row>
   </sheetData>
@@ -6188,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2D9C19-831B-AF48-BEFB-6F95F4E05B17}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:C46"/>
+    <sheetView topLeftCell="A46" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7058,23 +8694,79 @@
       <c r="A47" s="1">
         <v>43899</v>
       </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" ref="B47" si="8">IMSUB(F47,F46)</f>
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" ref="C47" si="9">IMSUB(G47,G46)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>150</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43900</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="str">
+        <f t="shared" ref="B48" si="10">IMSUB(F48,F47)</f>
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" ref="C48" si="11">IMSUB(G48,G47)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>160</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43901</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="str">
+        <f t="shared" ref="B49" si="12">IMSUB(F49,F48)</f>
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" ref="C49" si="13">IMSUB(G49,G48)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>166</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43902</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="str">
+        <f t="shared" ref="B50" si="14">IMSUB(F50,F49)</f>
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" ref="C50" si="15">IMSUB(G50,G49)</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>178</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43903</v>
       </c>
@@ -7086,10 +8778,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22938FD6-8551-8246-9908-4EBFFB731BD6}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C40"/>
+    <sheetView topLeftCell="A39" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7844,6 +9536,112 @@
       <c r="A41" s="1">
         <v>43899</v>
       </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41" si="6">IMSUB(F41,F40)</f>
+        <v>1492</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" ref="C41" si="7">IMSUB(G41,G40)</f>
+        <v>132</v>
+      </c>
+      <c r="F41">
+        <v>7375</v>
+      </c>
+      <c r="G41">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ref="B42" si="8">IMSUB(F42,F41)</f>
+        <v>1797</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" ref="C42" si="9">IMSUB(G42,G41)</f>
+        <v>97</v>
+      </c>
+      <c r="F42">
+        <v>9172</v>
+      </c>
+      <c r="G42">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ref="B43" si="10">IMSUB(F43,F42)</f>
+        <v>977</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" ref="C43" si="11">IMSUB(G43,G42)</f>
+        <v>168</v>
+      </c>
+      <c r="F43">
+        <v>10149</v>
+      </c>
+      <c r="G43">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" ref="B44" si="12">IMSUB(F44,F43)</f>
+        <v>2313</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" ref="C44" si="13">IMSUB(G44,G43)</f>
+        <v>196</v>
+      </c>
+      <c r="F44">
+        <v>12462</v>
+      </c>
+      <c r="G44">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43909</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7851,11 +9649,1809 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1A4762-5C9E-4F48-9FAD-966C3BF2612F}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IMSUB(F4,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>IMSUB(G4,G3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ref="B5:B43" si="0">IMSUB(F5,F4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C43" si="1">IMSUB(G5,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>57</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>191</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>212</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>282</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>420</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" ref="B44" si="2">IMSUB(F44,F43)</f>
+        <v>193</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" ref="C44" si="3">IMSUB(G44,G43)</f>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>613</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" ref="B45" si="4">IMSUB(F45,F44)</f>
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" ref="C45" si="5">IMSUB(G45,G44)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>706</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" ref="B46" si="6">IMSUB(F46,F45)</f>
+        <v>410</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" ref="C46" si="7">IMSUB(G46,G45)</f>
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>1116</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" ref="B47" si="8">IMSUB(F47,F46)</f>
+        <v>286</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" ref="C47" si="9">IMSUB(G47,G46)</f>
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>1402</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" ref="B48" si="10">IMSUB(F48,F47)</f>
+        <v>372</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" ref="C48" si="11">IMSUB(G48,G47)</f>
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1774</v>
+      </c>
+      <c r="G48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" ref="B49" si="12">IMSUB(F49,F48)</f>
+        <v>495</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" ref="C49" si="13">IMSUB(G49,G48)</f>
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>2269</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718D3409-3A14-434E-B823-1D7A766472C6}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43862</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IMSUB(F4,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>IMSUB(G4,G3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ref="B5:B37" si="0">IMSUB(F5,F4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C37" si="1">IMSUB(G5,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>45</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>151</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>198</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>257</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" ref="B38" si="2">IMSUB(F38,F37)</f>
+        <v>117</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" ref="C38" si="3">IMSUB(G38,G37)</f>
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>374</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" ref="B39" si="4">IMSUB(F39,F38)</f>
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" ref="C39" si="5">IMSUB(G39,G38)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>430</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" ref="B40" si="6">IMSUB(F40,F39)</f>
+        <v>159</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" ref="C40" si="7">IMSUB(G40,G39)</f>
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>589</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41" si="8">IMSUB(F41,F40)</f>
+        <v>435</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" ref="C41" si="9">IMSUB(G41,G40)</f>
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>1024</v>
+      </c>
+      <c r="G41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ref="B42" si="10">IMSUB(F42,F41)</f>
+        <v>615</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" ref="C42" si="11">IMSUB(G42,G41)</f>
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>1639</v>
+      </c>
+      <c r="G42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ref="B43" si="12">IMSUB(F43,F42)</f>
+        <v>501</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" ref="C43" si="13">IMSUB(G43,G42)</f>
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>2140</v>
+      </c>
+      <c r="G43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C3347-B883-E04A-B703-D1FAB790FD2F}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:C43"/>
+    <sheetView topLeftCell="A45" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8667,1665 +12263,111 @@
       <c r="A44" s="1">
         <v>43899</v>
       </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" ref="B44" si="6">IMSUB(F44,F43)</f>
+        <v>317</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" ref="C44" si="7">IMSUB(G44,G43)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1112</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43900</v>
       </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" ref="B45" si="8">IMSUB(F45,F44)</f>
+        <v>27</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" ref="C45" si="9">IMSUB(G45,G44)</f>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1139</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43901</v>
       </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" ref="B46" si="10">IMSUB(F46,F45)</f>
+        <v>157</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" ref="C46" si="11">IMSUB(G46,G45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1296</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43902</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1A4762-5C9E-4F48-9FAD-966C3BF2612F}">
-  <dimension ref="A1:G52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B47" s="3" t="str">
+        <f t="shared" ref="B47" si="12">IMSUB(F47,F46)</f>
+        <v>271</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" ref="C47" si="13">IMSUB(G47,G46)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1567</v>
+      </c>
+      <c r="G47">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43857</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>IMSUB(F4,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>IMSUB(G4,G3)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43858</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B43" si="0">IMSUB(F5,F4)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C43" si="1">IMSUB(G5,G4)</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43859</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43860</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43861</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43867</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43873</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43878</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43879</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>18</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>38</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>57</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="C40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>191</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>212</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>282</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="C43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>420</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B44" s="3" t="str">
-        <f t="shared" ref="B44" si="2">IMSUB(F44,F43)</f>
-        <v>193</v>
-      </c>
-      <c r="C44" s="3" t="str">
-        <f t="shared" ref="C44" si="3">IMSUB(G44,G43)</f>
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>613</v>
-      </c>
-      <c r="G44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B45" s="3" t="str">
-        <f t="shared" ref="B45" si="4">IMSUB(F45,F44)</f>
-        <v>93</v>
-      </c>
-      <c r="C45" s="3" t="str">
-        <f t="shared" ref="C45" si="5">IMSUB(G45,G44)</f>
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>706</v>
-      </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43905</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718D3409-3A14-434E-B823-1D7A766472C6}">
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>IMSUB(F4,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>IMSUB(G4,G3)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B37" si="0">IMSUB(F5,F4)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C37" si="1">IMSUB(G5,G4)</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43867</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43873</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43878</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43879</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>32</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>45</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>45</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>114</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>151</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>198</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>257</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" ref="B38" si="2">IMSUB(F38,F37)</f>
-        <v>117</v>
-      </c>
-      <c r="C38" s="3" t="str">
-        <f t="shared" ref="C38" si="3">IMSUB(G38,G37)</f>
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>374</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" ref="B39" si="4">IMSUB(F39,F38)</f>
-        <v>56</v>
-      </c>
-      <c r="C39" s="3" t="str">
-        <f t="shared" ref="C39" si="5">IMSUB(G39,G38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>430</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43899</v>
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43909</v>
       </c>
     </row>
   </sheetData>
@@ -10337,8 +12379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CA7AC1-181E-AD4D-98DF-144A4DA82D0F}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10597,38 +12639,94 @@
       <c r="A15" s="1">
         <v>43899</v>
       </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" ref="B15" si="4">IMSUB(F15,F14)</f>
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" ref="C15" si="5">IMSUB(G15,G14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>332</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43900</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="str">
+        <f t="shared" ref="B16" si="6">IMSUB(F16,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" ref="C16" si="7">IMSUB(G16,G15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>332</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43901</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="str">
+        <f t="shared" ref="B17" si="8">IMSUB(F17,F16)</f>
+        <v>159</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" ref="C17" si="9">IMSUB(G17,G16)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>491</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43902</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="str">
+        <f t="shared" ref="B18" si="10">IMSUB(F18,F17)</f>
+        <v>154</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" ref="C18" si="11">IMSUB(G18,G17)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>645</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43903</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43904</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43905</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43906</v>
       </c>
@@ -10643,7 +12741,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:C39"/>
+      <selection activeCell="B42" sqref="B42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11379,20 +13477,76 @@
       <c r="A40" s="1">
         <v>43899</v>
       </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" ref="B40" si="6">IMSUB(F40,F39)</f>
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" ref="C40" si="7">IMSUB(G40,G39)</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>277</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43900</v>
       </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41" si="8">IMSUB(F41,F40)</f>
+        <v>46</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" ref="C41" si="9">IMSUB(G41,G40)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>323</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43901</v>
       </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ref="B42" si="10">IMSUB(F42,F41)</f>
+        <v>50</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" ref="C42" si="11">IMSUB(G42,G41)</f>
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>373</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43902</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ref="B43" si="12">IMSUB(F43,F42)</f>
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" ref="C43" si="13">IMSUB(G43,G42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>460</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">

--- a/Foreign_Countries_nCoV_2020.xlsx
+++ b/Foreign_Countries_nCoV_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB2712-C839-D64C-A48F-2E931A724D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6F804-3B75-CC47-9A23-68EAA7D376ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="9" xr2:uid="{923090BF-C972-2A42-BA4D-B2FC2C1E1E1B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" xr2:uid="{923090BF-C972-2A42-BA4D-B2FC2C1E1E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="韩国" sheetId="3" r:id="rId1"/>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E4E93-CB02-3047-9EA8-E99825360D46}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="143" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2981,6 +2981,14 @@
       <c r="A85" s="1">
         <v>43932</v>
       </c>
+      <c r="B85" s="3" t="str">
+        <f t="shared" ref="B85:B86" si="69">IMSUB(F85,F84)</f>
+        <v>30</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85:C86" si="70">IMSUB(G85,G84)</f>
+        <v>3</v>
+      </c>
       <c r="F85">
         <v>10480</v>
       </c>
@@ -2992,25 +3000,95 @@
       <c r="A86" s="1">
         <v>43933</v>
       </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>32</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>10512</v>
+      </c>
+      <c r="G86">
+        <v>214</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43934</v>
       </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" ref="B87:B88" si="71">IMSUB(F87,F86)</f>
+        <v>25</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" ref="C87:C88" si="72">IMSUB(G87,G86)</f>
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>10537</v>
+      </c>
+      <c r="G87">
+        <v>217</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43935</v>
       </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>27</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>10564</v>
+      </c>
+      <c r="G88">
+        <v>222</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43936</v>
       </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" ref="B89:B90" si="73">IMSUB(F89,F88)</f>
+        <v>27</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" ref="C89:C90" si="74">IMSUB(G89,G88)</f>
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>10591</v>
+      </c>
+      <c r="G89">
+        <v>225</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43937</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>22</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>10613</v>
+      </c>
+      <c r="G90">
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3088,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372533E2-9407-6E44-BB15-2CEA0B5F9927}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView topLeftCell="A80" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4586,6 +4664,14 @@
       <c r="A80" s="1">
         <v>43932</v>
       </c>
+      <c r="B80" s="3" t="str">
+        <f t="shared" ref="B80:B81" si="68">IMSUB(F80,F79)</f>
+        <v>35386</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" ref="C80:C81" si="69">IMSUB(G80,G79)</f>
+        <v>1931</v>
+      </c>
       <c r="F80">
         <v>461275</v>
       </c>
@@ -4593,82 +4679,152 @@
         <v>16596</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>31606</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>1920</v>
+      </c>
+      <c r="F81">
+        <v>492881</v>
+      </c>
+      <c r="G81">
+        <v>18516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="str">
+        <f t="shared" ref="B82:B83" si="70">IMSUB(F82,F81)</f>
+        <v>31633</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" ref="C82:C83" si="71">IMSUB(G82,G81)</f>
+        <v>1928</v>
+      </c>
+      <c r="F82">
+        <v>524514</v>
+      </c>
+      <c r="G82">
+        <v>20444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>29308</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>1528</v>
+      </c>
+      <c r="F83">
+        <v>553822</v>
+      </c>
+      <c r="G83">
+        <v>21972</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="str">
+        <f t="shared" ref="B84:B85" si="72">IMSUB(F84,F83)</f>
+        <v>24446</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" ref="C84:C85" si="73">IMSUB(G84,G83)</f>
+        <v>1504</v>
+      </c>
+      <c r="F84">
+        <v>578268</v>
+      </c>
+      <c r="G84">
+        <v>23476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>26802</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>2395</v>
+      </c>
+      <c r="F85">
+        <v>605070</v>
+      </c>
+      <c r="G85">
+        <v>25871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43942</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43944</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43946</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43947</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43948</v>
       </c>
@@ -15301,8 +15457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76201B84-7380-2D40-9C5F-54772C6777F9}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A86" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16893,6 +17049,14 @@
       <c r="A85" s="1">
         <v>43932</v>
       </c>
+      <c r="B85" s="3" t="str">
+        <f t="shared" ref="B85:B86" si="66">IMSUB(F85,F84)</f>
+        <v>658</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85:C86" si="67">IMSUB(G85,G84)</f>
+        <v>6</v>
+      </c>
       <c r="F85">
         <v>6005</v>
       </c>
@@ -16904,25 +17068,95 @@
       <c r="A86" s="1">
         <v>43933</v>
       </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>743</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>6748</v>
+      </c>
+      <c r="G86">
+        <v>98</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43934</v>
       </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" ref="B87:B88" si="68">IMSUB(F87,F86)</f>
+        <v>507</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" ref="C87:C88" si="69">IMSUB(G87,G86)</f>
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>7255</v>
+      </c>
+      <c r="G87">
+        <v>102</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43935</v>
       </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>390</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>7645</v>
+      </c>
+      <c r="G88">
+        <v>109</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43936</v>
       </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" ref="B89:B90" si="70">IMSUB(F89,F88)</f>
+        <v>455</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" ref="C89:C90" si="71">IMSUB(G89,G88)</f>
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>8100</v>
+      </c>
+      <c r="G89">
+        <v>119</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43937</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>482</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>8582</v>
+      </c>
+      <c r="G90">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -22062,8 +22296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718D3409-3A14-434E-B823-1D7A766472C6}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="142" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A74" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23426,6 +23660,14 @@
       <c r="A73" s="1">
         <v>43932</v>
       </c>
+      <c r="B73" s="3" t="str">
+        <f t="shared" ref="B73:B74" si="63">IMSUB(F73,F72)</f>
+        <v>4576</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" ref="C73:C74" si="64">IMSUB(G73,G72)</f>
+        <v>605</v>
+      </c>
       <c r="F73">
         <v>157022</v>
       </c>
@@ -23437,25 +23679,95 @@
       <c r="A74" s="1">
         <v>43933</v>
       </c>
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>4830</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>510</v>
+      </c>
+      <c r="F74">
+        <v>161852</v>
+      </c>
+      <c r="G74">
+        <v>16353</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43934</v>
       </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" ref="B75:B76" si="65">IMSUB(F75,F74)</f>
+        <v>4167</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" ref="C75:C76" si="66">IMSUB(G75,G74)</f>
+        <v>619</v>
+      </c>
+      <c r="F75">
+        <v>166019</v>
+      </c>
+      <c r="G75">
+        <v>16972</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43935</v>
       </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>3477</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>517</v>
+      </c>
+      <c r="F76">
+        <v>169496</v>
+      </c>
+      <c r="G76">
+        <v>17489</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43936</v>
       </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" ref="B77:B78" si="67">IMSUB(F77,F76)</f>
+        <v>3045</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" ref="C77:C78" si="68">IMSUB(G77,G76)</f>
+        <v>567</v>
+      </c>
+      <c r="F77">
+        <v>172541</v>
+      </c>
+      <c r="G77">
+        <v>18056</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43937</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>5092</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>523</v>
+      </c>
+      <c r="F78">
+        <v>177633</v>
+      </c>
+      <c r="G78">
+        <v>18579</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -23617,8 +23929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22938FD6-8551-8246-9908-4EBFFB731BD6}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A70" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24963,11 +25275,11 @@
         <v>43930</v>
       </c>
       <c r="B72" s="3" t="str">
-        <f t="shared" ref="B72:B73" si="58">IMSUB(F72,F71)</f>
+        <f t="shared" ref="B72" si="58">IMSUB(F72,F71)</f>
         <v>3836</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" ref="C72:C73" si="59">IMSUB(G72,G71)</f>
+        <f t="shared" ref="C72" si="59">IMSUB(G72,G71)</f>
         <v>540</v>
       </c>
       <c r="F72">
@@ -24982,11 +25294,11 @@
         <v>43931</v>
       </c>
       <c r="B73" s="3" t="str">
-        <f t="shared" si="58"/>
+        <f>IMSUB(F73,F72)</f>
         <v>4204</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f t="shared" si="59"/>
+        <f>IMSUB(G73,G72)</f>
         <v>612</v>
       </c>
       <c r="F73">
@@ -25000,6 +25312,14 @@
       <c r="A74" s="1">
         <v>43932</v>
       </c>
+      <c r="B74" s="3" t="str">
+        <f t="shared" ref="B74:B75" si="60">IMSUB(F74,F73)</f>
+        <v>3951</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" ref="C74:C75" si="61">IMSUB(G74,G73)</f>
+        <v>570</v>
+      </c>
       <c r="F74">
         <v>147577</v>
       </c>
@@ -25011,25 +25331,95 @@
       <c r="A75" s="1">
         <v>43933</v>
       </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>4694</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="61"/>
+        <v>619</v>
+      </c>
+      <c r="F75">
+        <v>152271</v>
+      </c>
+      <c r="G75">
+        <v>19470</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43934</v>
       </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" ref="B76:B77" si="62">IMSUB(F76,F75)</f>
+        <v>4092</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" ref="C76:C77" si="63">IMSUB(G76,G75)</f>
+        <v>431</v>
+      </c>
+      <c r="F76">
+        <v>156363</v>
+      </c>
+      <c r="G76">
+        <v>19901</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43935</v>
       </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="62"/>
+        <v>3153</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>564</v>
+      </c>
+      <c r="F77">
+        <v>159516</v>
+      </c>
+      <c r="G77">
+        <v>20465</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43936</v>
       </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" ref="B78:B79" si="64">IMSUB(F78,F77)</f>
+        <v>2972</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" ref="C78:C79" si="65">IMSUB(G78,G77)</f>
+        <v>604</v>
+      </c>
+      <c r="F78">
+        <v>162488</v>
+      </c>
+      <c r="G78">
+        <v>21069</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43937</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>2667</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>578</v>
+      </c>
+      <c r="F79">
+        <v>165155</v>
+      </c>
+      <c r="G79">
+        <v>21647</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -25302,8 +25692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C3347-B883-E04A-B703-D1FAB790FD2F}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A77" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26705,11 +27095,11 @@
         <v>43930</v>
       </c>
       <c r="B75" s="3" t="str">
-        <f t="shared" ref="B75:B76" si="68">IMSUB(F75,F74)</f>
+        <f t="shared" ref="B75" si="68">IMSUB(F75,F74)</f>
         <v>4974</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f t="shared" ref="C75:C76" si="69">IMSUB(G75,G74)</f>
+        <f t="shared" ref="C75" si="69">IMSUB(G75,G74)</f>
         <v>246</v>
       </c>
       <c r="F75">
@@ -26724,11 +27114,11 @@
         <v>43931</v>
       </c>
       <c r="B76" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f>IMSUB(F76,F75)</f>
         <v>5323</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f t="shared" si="69"/>
+        <f>IMSUB(G76,G75)</f>
         <v>266</v>
       </c>
       <c r="F76">
@@ -26742,6 +27132,14 @@
       <c r="A77" s="1">
         <v>43932</v>
       </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" ref="B77:B78" si="70">IMSUB(F77,F76)</f>
+        <v>4133</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" ref="C77:C78" si="71">IMSUB(G77,G76)</f>
+        <v>171</v>
+      </c>
       <c r="F77">
         <v>117658</v>
       </c>
@@ -26753,93 +27151,163 @@
       <c r="A78" s="1">
         <v>43933</v>
       </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>2821</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>129</v>
+      </c>
+      <c r="F78">
+        <v>120479</v>
+      </c>
+      <c r="G78">
+        <v>2673</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43934</v>
       </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" ref="B79:B80" si="72">IMSUB(F79,F78)</f>
+        <v>2537</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" ref="C79:C80" si="73">IMSUB(G79,G78)</f>
+        <v>126</v>
+      </c>
+      <c r="F79">
+        <v>123016</v>
+      </c>
+      <c r="G79">
+        <v>2799</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>2082</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>170</v>
+      </c>
+      <c r="F80">
+        <v>125098</v>
+      </c>
+      <c r="G80">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="str">
+        <f t="shared" ref="B81:B82" si="74">IMSUB(F81,F80)</f>
+        <v>2486</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" ref="C81:C82" si="75">IMSUB(G81,G80)</f>
+        <v>285</v>
+      </c>
+      <c r="F81">
+        <v>127584</v>
+      </c>
+      <c r="G81">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>2866</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>315</v>
+      </c>
+      <c r="F82">
+        <v>130450</v>
+      </c>
+      <c r="G82">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43942</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43944</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43946</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43947</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43948</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43949</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43950</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43951</v>
       </c>
@@ -26894,8 +27362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1A4762-5C9E-4F48-9FAD-966C3BF2612F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView topLeftCell="A79" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28374,6 +28842,14 @@
       <c r="A79" s="1">
         <v>43932</v>
       </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" ref="B79:B80" si="65">IMSUB(F79,F78)</f>
+        <v>4332</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" ref="C79:C80" si="66">IMSUB(G79,G78)</f>
+        <v>987</v>
+      </c>
       <c r="F79">
         <v>89683</v>
       </c>
@@ -28385,63 +28861,133 @@
       <c r="A80" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>3104</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>635</v>
+      </c>
+      <c r="F80">
+        <v>92787</v>
+      </c>
+      <c r="G80">
+        <v>13814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="str">
+        <f t="shared" ref="B81:B82" si="67">IMSUB(F81,F80)</f>
+        <v>1595</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" ref="C81:C82" si="68">IMSUB(G81,G80)</f>
+        <v>560</v>
+      </c>
+      <c r="F81">
+        <v>94382</v>
+      </c>
+      <c r="G81">
+        <v>14374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>2668</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>572</v>
+      </c>
+      <c r="F82">
+        <v>97050</v>
+      </c>
+      <c r="G82">
+        <v>14946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="str">
+        <f t="shared" ref="B83:B84" si="69">IMSUB(F83,F82)</f>
+        <v>5483</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" ref="C83:C84" si="70">IMSUB(G83,G82)</f>
+        <v>762</v>
+      </c>
+      <c r="F83">
+        <v>102533</v>
+      </c>
+      <c r="G83">
+        <v>15708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>2622</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>1438</v>
+      </c>
+      <c r="F84">
+        <v>105155</v>
+      </c>
+      <c r="G84">
+        <v>17146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43942</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43944</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43945</v>
       </c>
@@ -28456,8 +29002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0338722F-2236-2B40-94C2-40F319AAA2AE}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A73" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29783,11 +30329,11 @@
         <v>43930</v>
       </c>
       <c r="B71" s="3" t="str">
-        <f t="shared" ref="B71:B72" si="68">IMSUB(F71,F70)</f>
+        <f t="shared" ref="B71" si="68">IMSUB(F71,F70)</f>
         <v>5491</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" ref="C71:C72" si="69">IMSUB(G71,G70)</f>
+        <f t="shared" ref="C71" si="69">IMSUB(G71,G70)</f>
         <v>938</v>
       </c>
       <c r="F71">
@@ -29802,11 +30348,11 @@
         <v>43931</v>
       </c>
       <c r="B72" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f>IMSUB(F72,F71)</f>
         <v>4344</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" si="69"/>
+        <f>IMSUB(G72,G71)</f>
         <v>881</v>
       </c>
       <c r="F72">
@@ -29820,6 +30366,14 @@
       <c r="A73" s="1">
         <v>43932</v>
       </c>
+      <c r="B73" s="3" t="str">
+        <f t="shared" ref="B73" si="70">IMSUB(F73,F72)</f>
+        <v>5195</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" ref="C73" si="71">IMSUB(G73,G72)</f>
+        <v>980</v>
+      </c>
       <c r="F73">
         <v>70276</v>
       </c>
@@ -29831,25 +30385,95 @@
       <c r="A74" s="1">
         <v>43933</v>
       </c>
+      <c r="B74" s="3" t="str">
+        <f>IMSUB(F74,F73)</f>
+        <v>8719</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f>IMSUB(G74,G73)</f>
+        <v>917</v>
+      </c>
+      <c r="F74">
+        <v>78995</v>
+      </c>
+      <c r="G74">
+        <v>9875</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43934</v>
       </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" ref="B75:B76" si="72">IMSUB(F75,F74)</f>
+        <v>5288</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" ref="C75:C76" si="73">IMSUB(G75,G74)</f>
+        <v>737</v>
+      </c>
+      <c r="F75">
+        <v>84283</v>
+      </c>
+      <c r="G75">
+        <v>10612</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43935</v>
       </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>4342</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>717</v>
+      </c>
+      <c r="F76">
+        <v>88625</v>
+      </c>
+      <c r="G76">
+        <v>11329</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43936</v>
       </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" ref="B77:B78" si="74">IMSUB(F77,F76)</f>
+        <v>5252</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" ref="C77:C78" si="75">IMSUB(G77,G76)</f>
+        <v>778</v>
+      </c>
+      <c r="F77">
+        <v>93877</v>
+      </c>
+      <c r="G77">
+        <v>12107</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43937</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>4603</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>761</v>
+      </c>
+      <c r="F78">
+        <v>98480</v>
+      </c>
+      <c r="G78">
+        <v>12868</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -29922,8 +30546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C32909D-5E29-164D-9163-CD8136A5EF28}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A73" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31325,6 +31949,14 @@
       <c r="A75" s="1">
         <v>43932</v>
       </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" ref="B75:B76" si="58">IMSUB(F75,F74)</f>
+        <v>1035</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" ref="C75:C76" si="59">IMSUB(G75,G74)</f>
+        <v>40</v>
+      </c>
       <c r="F75">
         <v>7447</v>
       </c>
@@ -31336,25 +31968,95 @@
       <c r="A76" s="1">
         <v>43933</v>
       </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="58"/>
+        <v>909</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>34</v>
+      </c>
+      <c r="F76">
+        <v>8356</v>
+      </c>
+      <c r="G76">
+        <v>273</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43934</v>
       </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" ref="B77:B78" si="60">IMSUB(F77,F76)</f>
+        <v>796</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" ref="C77:C78" si="61">IMSUB(G77,G76)</f>
+        <v>35</v>
+      </c>
+      <c r="F77">
+        <v>9152</v>
+      </c>
+      <c r="G77">
+        <v>308</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>1211</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="61"/>
+        <v>31</v>
+      </c>
+      <c r="F78">
+        <v>10363</v>
+      </c>
+      <c r="G78">
+        <v>339</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43936</v>
       </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" ref="B79:B80" si="62">IMSUB(F79,F78)</f>
+        <v>1076</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" ref="C79:C80" si="63">IMSUB(G79,G78)</f>
+        <v>38</v>
+      </c>
+      <c r="F79">
+        <v>11439</v>
+      </c>
+      <c r="G79">
+        <v>377</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43937</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="62"/>
+        <v>941</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>37</v>
+      </c>
+      <c r="F80">
+        <v>12380</v>
+      </c>
+      <c r="G80">
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -31660,10 +32362,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC88DB6-9092-AA40-8E94-D18A303167DE}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A50" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C57" sqref="B57:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32664,6 +33366,14 @@
       <c r="A54" s="1">
         <v>43932</v>
       </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" ref="B54:B55" si="59">IMSUB(F54,F53)</f>
+        <v>1972</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" ref="C54:C55" si="60">IMSUB(G54,G53)</f>
+        <v>122</v>
+      </c>
       <c r="F54">
         <v>68192</v>
       </c>
@@ -32675,20 +33385,235 @@
       <c r="A55" s="1">
         <v>43933</v>
       </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>1837</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>125</v>
+      </c>
+      <c r="F55">
+        <v>70029</v>
+      </c>
+      <c r="G55">
+        <v>4357</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43934</v>
       </c>
+      <c r="B56" s="3" t="str">
+        <f t="shared" ref="B56:B57" si="61">IMSUB(F56,F55)</f>
+        <v>1657</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" ref="C56:C57" si="62">IMSUB(G56,G55)</f>
+        <v>117</v>
+      </c>
+      <c r="F56">
+        <v>71686</v>
+      </c>
+      <c r="G56">
+        <v>4474</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43935</v>
       </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="61"/>
+        <v>1617</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="62"/>
+        <v>111</v>
+      </c>
+      <c r="F57">
+        <v>73303</v>
+      </c>
+      <c r="G57">
+        <v>4585</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43936</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" ref="B58:B59" si="63">IMSUB(F58,F57)</f>
+        <v>1574</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" ref="C58:C59" si="64">IMSUB(G58,G57)</f>
+        <v>98</v>
+      </c>
+      <c r="F58">
+        <v>74877</v>
+      </c>
+      <c r="G58">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>1512</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>94</v>
+      </c>
+      <c r="F59">
+        <v>76389</v>
+      </c>
+      <c r="G59">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43965</v>
       </c>
     </row>
   </sheetData>

--- a/Foreign_Countries_nCoV_2020.xlsx
+++ b/Foreign_Countries_nCoV_2020.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6F804-3B75-CC47-9A23-68EAA7D376ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6FEF7-3E2C-4B46-9C4F-6E5762CD97DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" xr2:uid="{923090BF-C972-2A42-BA4D-B2FC2C1E1E1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{923090BF-C972-2A42-BA4D-B2FC2C1E1E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="韩国" sheetId="3" r:id="rId1"/>
     <sheet name="日本" sheetId="1" r:id="rId2"/>
     <sheet name="西班牙" sheetId="12" r:id="rId3"/>
     <sheet name="意大利" sheetId="7" r:id="rId4"/>
-    <sheet name="德国" sheetId="10" r:id="rId5"/>
-    <sheet name="法国" sheetId="9" r:id="rId6"/>
-    <sheet name="英国" sheetId="11" r:id="rId7"/>
+    <sheet name="英国" sheetId="11" r:id="rId5"/>
+    <sheet name="德国" sheetId="10" r:id="rId6"/>
+    <sheet name="法国" sheetId="9" r:id="rId7"/>
     <sheet name="印度" sheetId="13" r:id="rId8"/>
     <sheet name="伊朗" sheetId="8" r:id="rId9"/>
     <sheet name="美国" sheetId="5" r:id="rId10"/>
@@ -91,6 +91,42 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2BD4CC7C-26F5-7D4C-ADD0-134626D9047F}</author>
+    <author>tc={22839530-42F2-CD47-A0FE-5494DF7C4389}</author>
+    <author>tc={A31F5B8E-8474-A84D-811B-DB740507F721}</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{2BD4CC7C-26F5-7D4C-ADD0-134626D9047F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WHO: 0</t>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="1" shapeId="0" xr:uid="{22839530-42F2-CD47-A0FE-5494DF7C4389}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WHO: 0</t>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="2" shapeId="0" xr:uid="{A31F5B8E-8474-A84D-811B-DB740507F721}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WHO: 78</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -178,7 +214,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -240,7 +276,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -302,7 +338,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -338,7 +374,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -400,7 +436,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -530,6 +566,62 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{14CC02D3-E988-F940-9FEA-CE6EB7877755}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WHO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="C49" authorId="0" shapeId="0" xr:uid="{9A93E127-E3DE-8944-B6DC-65B9A3C16C5A}">
       <text>
         <r>
@@ -612,7 +704,95 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{4FC9C0F5-D8F9-8B47-8D4C-27FA89C693AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WHO: 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{90056730-6E6B-2844-B2AF-85A30115B4D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WHO: 672</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{66929726-8AE0-D341-A542-36550341F0B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WHO: 0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -648,7 +828,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -736,95 +916,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{4FC9C0F5-D8F9-8B47-8D4C-27FA89C693AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="SimSun"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Candice
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="SimSun"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WHO: 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{90056730-6E6B-2844-B2AF-85A30115B4D3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="SimSun"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Candice
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="SimSun"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WHO: 672</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{66929726-8AE0-D341-A542-36550341F0B5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="SimSun"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Candice
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="SimSun"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WHO: 0</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -860,7 +952,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -916,42 +1008,6 @@
           </rPr>
           <t>WHO: 17</t>
         </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={2BD4CC7C-26F5-7D4C-ADD0-134626D9047F}</author>
-    <author>tc={22839530-42F2-CD47-A0FE-5494DF7C4389}</author>
-    <author>tc={A31F5B8E-8474-A84D-811B-DB740507F721}</author>
-  </authors>
-  <commentList>
-    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{2BD4CC7C-26F5-7D4C-ADD0-134626D9047F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    WHO: 0</t>
-      </text>
-    </comment>
-    <comment ref="C54" authorId="1" shapeId="0" xr:uid="{22839530-42F2-CD47-A0FE-5494DF7C4389}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    WHO: 0</t>
-      </text>
-    </comment>
-    <comment ref="B56" authorId="2" shapeId="0" xr:uid="{A31F5B8E-8474-A84D-811B-DB740507F721}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    WHO: 78</t>
       </text>
     </comment>
   </commentList>
@@ -1388,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E4E93-CB02-3047-9EA8-E99825360D46}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:C90"/>
+    <sheetView topLeftCell="A88" zoomScale="143" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3058,11 +3114,11 @@
         <v>43936</v>
       </c>
       <c r="B89" s="3" t="str">
-        <f t="shared" ref="B89:B90" si="73">IMSUB(F89,F88)</f>
+        <f t="shared" ref="B89" si="73">IMSUB(F89,F88)</f>
         <v>27</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f t="shared" ref="C89:C90" si="74">IMSUB(G89,G88)</f>
+        <f t="shared" ref="C89" si="74">IMSUB(G89,G88)</f>
         <v>3</v>
       </c>
       <c r="F89">
@@ -3077,11 +3133,11 @@
         <v>43937</v>
       </c>
       <c r="B90" s="3" t="str">
-        <f t="shared" si="73"/>
+        <f>IMSUB(F90,F89)</f>
         <v>22</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f t="shared" si="74"/>
+        <f>IMSUB(G90,G89)</f>
         <v>4</v>
       </c>
       <c r="F90">
@@ -3095,15 +3151,57 @@
       <c r="A91" s="1">
         <v>43938</v>
       </c>
+      <c r="B91" s="3" t="str">
+        <f>IMSUB(F91,F90)</f>
+        <v>22</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f>IMSUB(G91,G90)</f>
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>10635</v>
+      </c>
+      <c r="G91">
+        <v>230</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43939</v>
       </c>
+      <c r="B92" s="3" t="str">
+        <f t="shared" ref="B92:B93" si="75">IMSUB(F92,F91)</f>
+        <v>18</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" ref="C92:C93" si="76">IMSUB(G92,G91)</f>
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>10653</v>
+      </c>
+      <c r="G92">
+        <v>232</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43940</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>10661</v>
+      </c>
+      <c r="G93">
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372533E2-9407-6E44-BB15-2CEA0B5F9927}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView topLeftCell="A86" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4741,11 +4839,11 @@
         <v>43936</v>
       </c>
       <c r="B84" s="3" t="str">
-        <f t="shared" ref="B84:B85" si="72">IMSUB(F84,F83)</f>
+        <f t="shared" ref="B84" si="72">IMSUB(F84,F83)</f>
         <v>24446</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f t="shared" ref="C84:C85" si="73">IMSUB(G84,G83)</f>
+        <f t="shared" ref="C84" si="73">IMSUB(G84,G83)</f>
         <v>1504</v>
       </c>
       <c r="F84">
@@ -4760,11 +4858,11 @@
         <v>43937</v>
       </c>
       <c r="B85" s="3" t="str">
-        <f t="shared" si="72"/>
+        <f>IMSUB(F85,F84)</f>
         <v>26802</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f t="shared" si="73"/>
+        <f>IMSUB(G85,G84)</f>
         <v>2395</v>
       </c>
       <c r="F85">
@@ -4778,133 +4876,315 @@
       <c r="A86" s="1">
         <v>43938</v>
       </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" ref="B86:B87" si="74">IMSUB(F86,F85)</f>
+        <v>27711</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" ref="C86:C87" si="75">IMSUB(G86,G85)</f>
+        <v>2350</v>
+      </c>
+      <c r="F86">
+        <v>632781</v>
+      </c>
+      <c r="G86">
+        <v>28221</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43939</v>
       </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>32549</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>2163</v>
+      </c>
+      <c r="F87">
+        <v>665330</v>
+      </c>
+      <c r="G87">
+        <v>30384</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43940</v>
       </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" ref="B88" si="76">IMSUB(F88,F87)</f>
+        <v>30023</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" ref="C88" si="77">IMSUB(G88,G87)</f>
+        <v>2043</v>
+      </c>
+      <c r="F88">
+        <v>695353</v>
+      </c>
+      <c r="G88">
+        <v>32427</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43941</v>
       </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" ref="B89:B91" si="78">IMSUB(F89,F88)</f>
+        <v>28252</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" ref="C89:C91" si="79">IMSUB(G89,G88)</f>
+        <v>1776</v>
+      </c>
+      <c r="F89">
+        <v>723605</v>
+      </c>
+      <c r="G89">
+        <v>34203</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43942</v>
       </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>27668</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>1681</v>
+      </c>
+      <c r="F90">
+        <v>751273</v>
+      </c>
+      <c r="G90">
+        <v>35884</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43943</v>
       </c>
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>25634</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>1718</v>
+      </c>
+      <c r="F91">
+        <v>776907</v>
+      </c>
+      <c r="G91">
+        <v>37602</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43944</v>
       </c>
+      <c r="B92" s="3" t="str">
+        <f t="shared" ref="B92:B94" si="80">IMSUB(F92,F91)</f>
+        <v>24019</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" ref="C92:C94" si="81">IMSUB(G92,G91)</f>
+        <v>2471</v>
+      </c>
+      <c r="F92">
+        <v>800926</v>
+      </c>
+      <c r="G92">
+        <v>40073</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43945</v>
       </c>
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>29127</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>2238</v>
+      </c>
+      <c r="F93">
+        <v>830053</v>
+      </c>
+      <c r="G93">
+        <v>42311</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43946</v>
       </c>
+      <c r="B94" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>30719</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>1742</v>
+      </c>
+      <c r="F94">
+        <v>860772</v>
+      </c>
+      <c r="G94">
+        <v>44053</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43947</v>
       </c>
+      <c r="B95" s="3" t="str">
+        <f t="shared" ref="B95:B98" si="82">IMSUB(F95,F94)</f>
+        <v>38509</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" ref="C95:C98" si="83">IMSUB(G95,G94)</f>
+        <v>2151</v>
+      </c>
+      <c r="F95">
+        <v>899281</v>
+      </c>
+      <c r="G95">
+        <v>46204</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>32417</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>1776</v>
+      </c>
+      <c r="F96">
+        <v>931698</v>
+      </c>
+      <c r="G96">
+        <v>47980</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>29218</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>1190</v>
+      </c>
+      <c r="F97">
+        <v>960916</v>
+      </c>
+      <c r="G97">
+        <v>49170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>22541</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>1322</v>
+      </c>
+      <c r="F98">
+        <v>983457</v>
+      </c>
+      <c r="G98">
+        <v>50492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43952</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43955</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43956</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43958</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43959</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43960</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43961</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43962</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43963</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43964</v>
       </c>
@@ -15455,10 +15735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76201B84-7380-2D40-9C5F-54772C6777F9}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:C90"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17157,6 +17437,343 @@
       </c>
       <c r="G90">
         <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <f t="shared" ref="B91:B92" si="72">IMSUB(F91,F90)</f>
+        <v>585</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" ref="C91:C92" si="73">IMSUB(G91,G90)</f>
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>9167</v>
+      </c>
+      <c r="G91">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>628</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>9795</v>
+      </c>
+      <c r="G92">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <f t="shared" ref="B93" si="74">IMSUB(F93,F92)</f>
+        <v>566</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" ref="C93" si="75">IMSUB(G93,G92)</f>
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>10361</v>
+      </c>
+      <c r="G93">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B94" s="3" t="str">
+        <f t="shared" ref="B94:B96" si="76">IMSUB(F94,F93)</f>
+        <v>390</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" ref="C94:C96" si="77">IMSUB(G94,G93)</f>
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>10751</v>
+      </c>
+      <c r="G94">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>368</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>15</v>
+      </c>
+      <c r="F95">
+        <v>11119</v>
+      </c>
+      <c r="G95">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>377</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>91</v>
+      </c>
+      <c r="F96">
+        <v>11496</v>
+      </c>
+      <c r="G96">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B97" s="3" t="str">
+        <f t="shared" ref="B97:B99" si="78">IMSUB(F97,F96)</f>
+        <v>423</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" ref="C97:C99" si="79">IMSUB(G97,G96)</f>
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>11919</v>
+      </c>
+      <c r="G97">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>469</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <v>12388</v>
+      </c>
+      <c r="G98">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>441</v>
+      </c>
+      <c r="C99" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>12829</v>
+      </c>
+      <c r="G99">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <f t="shared" ref="B100:B103" si="80">IMSUB(F100,F99)</f>
+        <v>353</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f t="shared" ref="C100:C103" si="81">IMSUB(G100,G99)</f>
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>13182</v>
+      </c>
+      <c r="G100">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>203</v>
+      </c>
+      <c r="C101" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>13385</v>
+      </c>
+      <c r="G101">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>191</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>13576</v>
+      </c>
+      <c r="G102">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B103" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>276</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>13</v>
+      </c>
+      <c r="F103">
+        <v>13852</v>
+      </c>
+      <c r="G103">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43968</v>
       </c>
     </row>
   </sheetData>
@@ -22293,11 +22910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718D3409-3A14-434E-B823-1D7A766472C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718D3409-3A14-434E-B823-1D7A766472C6}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:C78"/>
+    <sheetView topLeftCell="A82" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23774,88 +24391,270 @@
       <c r="A79" s="1">
         <v>43938</v>
       </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" ref="B79" si="69">IMSUB(F79,F78)</f>
+        <v>5183</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" ref="C79" si="70">IMSUB(G79,G78)</f>
+        <v>551</v>
+      </c>
+      <c r="F79">
+        <v>182816</v>
+      </c>
+      <c r="G79">
+        <v>19130</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43939</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="str">
+        <f t="shared" ref="B80:B81" si="71">IMSUB(F80,F79)</f>
+        <v>5252</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" ref="C80:C81" si="72">IMSUB(G80,G79)</f>
+        <v>348</v>
+      </c>
+      <c r="F80">
+        <v>188068</v>
+      </c>
+      <c r="G80">
+        <v>19478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43940</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>3658</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>565</v>
+      </c>
+      <c r="F81">
+        <v>191726</v>
+      </c>
+      <c r="G81">
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43941</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="str">
+        <f t="shared" ref="B82:B84" si="73">IMSUB(F82,F81)</f>
+        <v>4218</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" ref="C82:C84" si="74">IMSUB(G82,G81)</f>
+        <v>410</v>
+      </c>
+      <c r="F82">
+        <v>195944</v>
+      </c>
+      <c r="G82">
+        <v>20453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43942</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>4266</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>399</v>
+      </c>
+      <c r="F83">
+        <v>200210</v>
+      </c>
+      <c r="G83">
+        <v>20852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43943</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>3968</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>430</v>
+      </c>
+      <c r="F84">
+        <v>204178</v>
+      </c>
+      <c r="G84">
+        <v>21282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43944</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="str">
+        <f t="shared" ref="B85:B87" si="75">IMSUB(F85,F84)</f>
+        <v>4211</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85:C87" si="76">IMSUB(G85,G84)</f>
+        <v>435</v>
+      </c>
+      <c r="F85">
+        <v>208389</v>
+      </c>
+      <c r="G85">
+        <v>21717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43945</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>4635</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>440</v>
+      </c>
+      <c r="F86">
+        <v>213024</v>
+      </c>
+      <c r="G86">
+        <v>22157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>6740</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>367</v>
+      </c>
+      <c r="F87">
+        <v>219764</v>
+      </c>
+      <c r="G87">
+        <v>22524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="str">
+        <f t="shared" ref="B88:B91" si="77">IMSUB(F88,F87)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" ref="C88:C91" si="78">IMSUB(G88,G87)</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>219764</v>
+      </c>
+      <c r="G88">
+        <v>22524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>-12130</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>666</v>
+      </c>
+      <c r="F89">
+        <v>207634</v>
+      </c>
+      <c r="G89">
+        <v>23190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>1831</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>209465</v>
+      </c>
+      <c r="G90">
+        <v>23190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>1308</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>632</v>
+      </c>
+      <c r="F91">
+        <v>210773</v>
+      </c>
+      <c r="G91">
+        <v>23822</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43952</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43955</v>
       </c>
@@ -23922,6 +24721,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23929,8 +24729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22938FD6-8551-8246-9908-4EBFFB731BD6}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:C79"/>
+    <sheetView topLeftCell="A81" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25426,83 +26226,265 @@
       <c r="A80" s="1">
         <v>43938</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="str">
+        <f t="shared" ref="B80:B81" si="66">IMSUB(F80,F79)</f>
+        <v>3786</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" ref="C80:C81" si="67">IMSUB(G80,G79)</f>
+        <v>525</v>
+      </c>
+      <c r="F80">
+        <v>168941</v>
+      </c>
+      <c r="G80">
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43939</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>3493</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>575</v>
+      </c>
+      <c r="F81">
+        <v>172434</v>
+      </c>
+      <c r="G81">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43940</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="str">
+        <f t="shared" ref="B82" si="68">IMSUB(F82,F81)</f>
+        <v>3491</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" ref="C82" si="69">IMSUB(G82,G81)</f>
+        <v>480</v>
+      </c>
+      <c r="F82">
+        <v>175925</v>
+      </c>
+      <c r="G82">
+        <v>23227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43941</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="str">
+        <f t="shared" ref="B83:B85" si="70">IMSUB(F83,F82)</f>
+        <v>3047</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" ref="C83:C85" si="71">IMSUB(G83,G82)</f>
+        <v>433</v>
+      </c>
+      <c r="F83">
+        <v>178972</v>
+      </c>
+      <c r="G83">
+        <v>23660</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43942</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>2256</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>454</v>
+      </c>
+      <c r="F84">
+        <v>181228</v>
+      </c>
+      <c r="G84">
+        <v>24114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43943</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>2729</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>534</v>
+      </c>
+      <c r="F85">
+        <v>183957</v>
+      </c>
+      <c r="G85">
+        <v>24648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43944</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="str">
+        <f t="shared" ref="B86:B88" si="72">IMSUB(F86,F85)</f>
+        <v>3280</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" ref="C86:C88" si="73">IMSUB(G86,G85)</f>
+        <v>437</v>
+      </c>
+      <c r="F86">
+        <v>187237</v>
+      </c>
+      <c r="G86">
+        <v>25085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43945</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>2736</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>464</v>
+      </c>
+      <c r="F87">
+        <v>189973</v>
+      </c>
+      <c r="G87">
+        <v>25549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>3021</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>420</v>
+      </c>
+      <c r="F88">
+        <v>192994</v>
+      </c>
+      <c r="G88">
+        <v>25969</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="str">
+        <f t="shared" ref="B89:B92" si="74">IMSUB(F89,F88)</f>
+        <v>2357</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" ref="C89:C92" si="75">IMSUB(G89,G88)</f>
+        <v>415</v>
+      </c>
+      <c r="F89">
+        <v>195351</v>
+      </c>
+      <c r="G89">
+        <v>26384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>2324</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>260</v>
+      </c>
+      <c r="F90">
+        <v>197675</v>
+      </c>
+      <c r="G90">
+        <v>26644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>1739</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>333</v>
+      </c>
+      <c r="F91">
+        <v>199414</v>
+      </c>
+      <c r="G91">
+        <v>26977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>2091</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>382</v>
+      </c>
+      <c r="F92">
+        <v>201505</v>
+      </c>
+      <c r="G92">
+        <v>27359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43952</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43954</v>
       </c>
@@ -25689,11 +26671,1787 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0338722F-2236-2B40-94C2-40F319AAA2AE}">
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43862</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IMSUB(F4,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>IMSUB(G4,G3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ref="B5:B37" si="0">IMSUB(F5,F4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C37" si="1">IMSUB(G5,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>89</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>118</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" ref="B38" si="2">IMSUB(F38,F37)</f>
+        <v>49</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" ref="C38" si="3">IMSUB(G38,G37)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>167</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" ref="B39" si="4">IMSUB(F39,F38)</f>
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" ref="C39" si="5">IMSUB(G39,G38)</f>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>210</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" ref="B40" si="6">IMSUB(F40,F39)</f>
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" ref="C40" si="7">IMSUB(G40,G39)</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>277</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41" si="8">IMSUB(F41,F40)</f>
+        <v>46</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" ref="C41" si="9">IMSUB(G41,G40)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>323</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ref="B42" si="10">IMSUB(F42,F41)</f>
+        <v>50</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" ref="C42" si="11">IMSUB(G42,G41)</f>
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>373</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ref="B43" si="12">IMSUB(F43,F42)</f>
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" ref="C43" si="13">IMSUB(G43,G42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>460</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" ref="B44" si="14">IMSUB(F44,F43)</f>
+        <v>134</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" ref="C44" si="15">IMSUB(G44,G43)</f>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>594</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" ref="B45" si="16">IMSUB(F45,F44)</f>
+        <v>208</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" ref="C45" si="17">IMSUB(G45,G44)</f>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>802</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" ref="B46" si="18">IMSUB(F46,F45)</f>
+        <v>342</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" ref="C46" si="19">IMSUB(G46,G45)</f>
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>1144</v>
+      </c>
+      <c r="G46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" ref="B47" si="20">IMSUB(F47,F46)</f>
+        <v>251</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" ref="C47" si="21">IMSUB(G47,G46)</f>
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>1395</v>
+      </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" ref="B48" si="22">IMSUB(F48,F47)</f>
+        <v>152</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" ref="C48" si="23">IMSUB(G48,G47)</f>
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>1547</v>
+      </c>
+      <c r="G48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" ref="B49" si="24">IMSUB(F49,F48)</f>
+        <v>407</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" ref="C49" si="25">IMSUB(G49,G48)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1954</v>
+      </c>
+      <c r="G49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" ref="B50" si="26">IMSUB(F50,F49)</f>
+        <v>676</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" ref="C50" si="27">IMSUB(G50,G49)</f>
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>2630</v>
+      </c>
+      <c r="G50">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" ref="B51" si="28">IMSUB(F51,F50)</f>
+        <v>647</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" ref="C51" si="29">IMSUB(G51,G50)</f>
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <v>3277</v>
+      </c>
+      <c r="G51">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" ref="B52" si="30">IMSUB(F52,F51)</f>
+        <v>706</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" ref="C52" si="31">IMSUB(G52,G51)</f>
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>3983</v>
+      </c>
+      <c r="G52">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" ref="B53" si="32">IMSUB(F53,F52)</f>
+        <v>1035</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" ref="C53" si="33">IMSUB(G53,G52)</f>
+        <v>56</v>
+      </c>
+      <c r="F53">
+        <v>5018</v>
+      </c>
+      <c r="G53">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" ref="B54" si="34">IMSUB(F54,F53)</f>
+        <v>669</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" ref="C54" si="35">IMSUB(G54,G53)</f>
+        <v>48</v>
+      </c>
+      <c r="F54">
+        <v>5687</v>
+      </c>
+      <c r="G54">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" ref="B55" si="36">IMSUB(F55,F54)</f>
+        <v>967</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" ref="C55" si="37">IMSUB(G55,G54)</f>
+        <v>54</v>
+      </c>
+      <c r="F55">
+        <v>6654</v>
+      </c>
+      <c r="G55">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f t="shared" ref="B56" si="38">IMSUB(F56,F55)</f>
+        <v>1427</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" ref="C56" si="39">IMSUB(G56,G55)</f>
+        <v>87</v>
+      </c>
+      <c r="F56">
+        <v>8081</v>
+      </c>
+      <c r="G56">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" ref="B57" si="40">IMSUB(F57,F56)</f>
+        <v>1452</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" ref="C57" si="41">IMSUB(G57,G56)</f>
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>9533</v>
+      </c>
+      <c r="G57">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" ref="B58" si="42">IMSUB(F58,F57)</f>
+        <v>2129</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" ref="C58" si="43">IMSUB(G58,G57)</f>
+        <v>115</v>
+      </c>
+      <c r="F58">
+        <v>11662</v>
+      </c>
+      <c r="G58">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" ref="B59" si="44">IMSUB(F59,F58)</f>
+        <v>2885</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" ref="C59" si="45">IMSUB(G59,G58)</f>
+        <v>181</v>
+      </c>
+      <c r="F59">
+        <v>14547</v>
+      </c>
+      <c r="G59">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" ref="B60" si="46">IMSUB(F60,F59)</f>
+        <v>2546</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" ref="C60" si="47">IMSUB(G60,G59)</f>
+        <v>260</v>
+      </c>
+      <c r="F60">
+        <v>17093</v>
+      </c>
+      <c r="G60">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" ref="B61" si="48">IMSUB(F61,F60)</f>
+        <v>2433</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" ref="C61" si="49">IMSUB(G61,G60)</f>
+        <v>209</v>
+      </c>
+      <c r="F61">
+        <v>19526</v>
+      </c>
+      <c r="G61">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f t="shared" ref="B62" si="50">IMSUB(F62,F61)</f>
+        <v>2619</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" ref="C62" si="51">IMSUB(G62,G61)</f>
+        <v>180</v>
+      </c>
+      <c r="F62">
+        <v>22145</v>
+      </c>
+      <c r="G62">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B63" s="3" t="str">
+        <f t="shared" ref="B63" si="52">IMSUB(F63,F62)</f>
+        <v>3009</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" ref="C63" si="53">IMSUB(G63,G62)</f>
+        <v>381</v>
+      </c>
+      <c r="F63">
+        <v>25154</v>
+      </c>
+      <c r="G63">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f t="shared" ref="B64" si="54">IMSUB(F64,F63)</f>
+        <v>4324</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" ref="C64" si="55">IMSUB(G64,G63)</f>
+        <v>743</v>
+      </c>
+      <c r="F64">
+        <v>29478</v>
+      </c>
+      <c r="G64">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f t="shared" ref="B65" si="56">IMSUB(F65,F64)</f>
+        <v>4244</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" ref="C65" si="57">IMSUB(G65,G64)</f>
+        <v>389</v>
+      </c>
+      <c r="F65">
+        <v>33722</v>
+      </c>
+      <c r="G65">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f t="shared" ref="B66" si="58">IMSUB(F66,F65)</f>
+        <v>4450</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" ref="C66" si="59">IMSUB(G66,G65)</f>
+        <v>684</v>
+      </c>
+      <c r="F66">
+        <v>38172</v>
+      </c>
+      <c r="G66">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f t="shared" ref="B67" si="60">IMSUB(F67,F66)</f>
+        <v>3735</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" ref="C67" si="61">IMSUB(G67,G66)</f>
+        <v>708</v>
+      </c>
+      <c r="F67">
+        <v>41907</v>
+      </c>
+      <c r="G67">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f t="shared" ref="B68" si="62">IMSUB(F68,F67)</f>
+        <v>5903</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" ref="C68" si="63">IMSUB(G68,G67)</f>
+        <v>621</v>
+      </c>
+      <c r="F68">
+        <v>47810</v>
+      </c>
+      <c r="G68">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <f t="shared" ref="B69" si="64">IMSUB(F69,F68)</f>
+        <v>3802</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f t="shared" ref="C69" si="65">IMSUB(G69,G68)</f>
+        <v>439</v>
+      </c>
+      <c r="F69">
+        <v>51612</v>
+      </c>
+      <c r="G69">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <f t="shared" ref="B70" si="66">IMSUB(F70,F69)</f>
+        <v>3634</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" ref="C70" si="67">IMSUB(G70,G69)</f>
+        <v>786</v>
+      </c>
+      <c r="F70">
+        <v>55246</v>
+      </c>
+      <c r="G70">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <f t="shared" ref="B71" si="68">IMSUB(F71,F70)</f>
+        <v>5491</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" ref="C71" si="69">IMSUB(G71,G70)</f>
+        <v>938</v>
+      </c>
+      <c r="F71">
+        <v>60737</v>
+      </c>
+      <c r="G71">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B72" s="3" t="str">
+        <f>IMSUB(F72,F71)</f>
+        <v>4344</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f>IMSUB(G72,G71)</f>
+        <v>881</v>
+      </c>
+      <c r="F72">
+        <v>65081</v>
+      </c>
+      <c r="G72">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <f t="shared" ref="B73" si="70">IMSUB(F73,F72)</f>
+        <v>5195</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" ref="C73" si="71">IMSUB(G73,G72)</f>
+        <v>980</v>
+      </c>
+      <c r="F73">
+        <v>70276</v>
+      </c>
+      <c r="G73">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <f>IMSUB(F74,F73)</f>
+        <v>8719</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f>IMSUB(G74,G73)</f>
+        <v>917</v>
+      </c>
+      <c r="F74">
+        <v>78995</v>
+      </c>
+      <c r="G74">
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" ref="B75:B76" si="72">IMSUB(F75,F74)</f>
+        <v>5288</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" ref="C75:C76" si="73">IMSUB(G75,G74)</f>
+        <v>737</v>
+      </c>
+      <c r="F75">
+        <v>84283</v>
+      </c>
+      <c r="G75">
+        <v>10612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>4342</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>717</v>
+      </c>
+      <c r="F76">
+        <v>88625</v>
+      </c>
+      <c r="G76">
+        <v>11329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" ref="B77:B78" si="74">IMSUB(F77,F76)</f>
+        <v>5252</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" ref="C77:C78" si="75">IMSUB(G77,G76)</f>
+        <v>778</v>
+      </c>
+      <c r="F77">
+        <v>93877</v>
+      </c>
+      <c r="G77">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>4603</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>761</v>
+      </c>
+      <c r="F78">
+        <v>98480</v>
+      </c>
+      <c r="G78">
+        <v>12868</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" ref="B79:B80" si="76">IMSUB(F79,F78)</f>
+        <v>4617</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" ref="C79:C80" si="77">IMSUB(G79,G78)</f>
+        <v>861</v>
+      </c>
+      <c r="F79">
+        <v>103097</v>
+      </c>
+      <c r="G79">
+        <v>13729</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>5599</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>847</v>
+      </c>
+      <c r="F80">
+        <v>108696</v>
+      </c>
+      <c r="G80">
+        <v>14576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B81" s="3" t="str">
+        <f t="shared" ref="B81" si="78">IMSUB(F81,F80)</f>
+        <v>5525</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" ref="C81" si="79">IMSUB(G81,G80)</f>
+        <v>888</v>
+      </c>
+      <c r="F81">
+        <v>114221</v>
+      </c>
+      <c r="G81">
+        <v>15464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B82" s="3" t="str">
+        <f t="shared" ref="B82:B84" si="80">IMSUB(F82,F81)</f>
+        <v>5850</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" ref="C82:C84" si="81">IMSUB(G82,G81)</f>
+        <v>596</v>
+      </c>
+      <c r="F82">
+        <v>120071</v>
+      </c>
+      <c r="G82">
+        <v>16060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>4676</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>449</v>
+      </c>
+      <c r="F83">
+        <v>124747</v>
+      </c>
+      <c r="G83">
+        <v>16509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>4301</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>828</v>
+      </c>
+      <c r="F84">
+        <v>129048</v>
+      </c>
+      <c r="G84">
+        <v>17337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B85" s="3" t="str">
+        <f t="shared" ref="B85:B87" si="82">IMSUB(F85,F84)</f>
+        <v>4451</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85:C87" si="83">IMSUB(G85,G84)</f>
+        <v>763</v>
+      </c>
+      <c r="F85">
+        <v>133499</v>
+      </c>
+      <c r="G85">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>4583</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>638</v>
+      </c>
+      <c r="F86">
+        <v>138082</v>
+      </c>
+      <c r="G86">
+        <v>18738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>5386</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>768</v>
+      </c>
+      <c r="F87">
+        <v>143468</v>
+      </c>
+      <c r="G87">
+        <v>19506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" ref="B88:B91" si="84">IMSUB(F88,F87)</f>
+        <v>4913</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" ref="C88:C91" si="85">IMSUB(G88,G87)</f>
+        <v>813</v>
+      </c>
+      <c r="F88">
+        <v>148381</v>
+      </c>
+      <c r="G88">
+        <v>20319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>4463</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="85"/>
+        <v>413</v>
+      </c>
+      <c r="F89">
+        <v>152844</v>
+      </c>
+      <c r="G89">
+        <v>20732</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>4309</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="85"/>
+        <v>360</v>
+      </c>
+      <c r="F90">
+        <v>157153</v>
+      </c>
+      <c r="G90">
+        <v>21092</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>3996</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="85"/>
+        <v>586</v>
+      </c>
+      <c r="F91">
+        <v>161149</v>
+      </c>
+      <c r="G91">
+        <v>21678</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C3347-B883-E04A-B703-D1FAB790FD2F}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:D82"/>
+    <sheetView topLeftCell="A84" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C91" sqref="B91:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27246,65 +30004,247 @@
       <c r="A83" s="1">
         <v>43938</v>
       </c>
+      <c r="B83" s="3" t="str">
+        <f t="shared" ref="B83:B84" si="76">IMSUB(F83,F82)</f>
+        <v>3380</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" ref="C83:C84" si="77">IMSUB(G83,G82)</f>
+        <v>299</v>
+      </c>
+      <c r="F83">
+        <v>133830</v>
+      </c>
+      <c r="G83">
+        <v>3868</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43939</v>
       </c>
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>3609</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>242</v>
+      </c>
+      <c r="F84">
+        <v>137439</v>
+      </c>
+      <c r="G84">
+        <v>4110</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43940</v>
       </c>
+      <c r="B85" s="3" t="str">
+        <f t="shared" ref="B85" si="78">IMSUB(F85,F84)</f>
+        <v>2458</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85" si="79">IMSUB(G85,G84)</f>
+        <v>184</v>
+      </c>
+      <c r="F85">
+        <v>139897</v>
+      </c>
+      <c r="G85">
+        <v>4294</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43941</v>
       </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" ref="B86:B88" si="80">IMSUB(F86,F85)</f>
+        <v>1775</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" ref="C86:C88" si="81">IMSUB(G86,G85)</f>
+        <v>110</v>
+      </c>
+      <c r="F86">
+        <v>141672</v>
+      </c>
+      <c r="G86">
+        <v>4404</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43942</v>
       </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>1785</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>194</v>
+      </c>
+      <c r="F87">
+        <v>143457</v>
+      </c>
+      <c r="G87">
+        <v>4598</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43943</v>
       </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>2237</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>281</v>
+      </c>
+      <c r="F88">
+        <v>145694</v>
+      </c>
+      <c r="G88">
+        <v>4879</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43944</v>
       </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" ref="B89:B91" si="82">IMSUB(F89,F88)</f>
+        <v>2352</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" ref="C89:C91" si="83">IMSUB(G89,G88)</f>
+        <v>215</v>
+      </c>
+      <c r="F89">
+        <v>148046</v>
+      </c>
+      <c r="G89">
+        <v>5094</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43945</v>
       </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>2337</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>227</v>
+      </c>
+      <c r="F90">
+        <v>150383</v>
+      </c>
+      <c r="G90">
+        <v>5321</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43946</v>
       </c>
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>2055</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>179</v>
+      </c>
+      <c r="F91">
+        <v>152438</v>
+      </c>
+      <c r="G91">
+        <v>5500</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43947</v>
       </c>
+      <c r="B92" s="3" t="str">
+        <f t="shared" ref="B92:B95" si="84">IMSUB(F92,F91)</f>
+        <v>1737</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" ref="C92:C95" si="85">IMSUB(G92,G91)</f>
+        <v>140</v>
+      </c>
+      <c r="F92">
+        <v>154175</v>
+      </c>
+      <c r="G92">
+        <v>5640</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43948</v>
       </c>
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>1018</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="85"/>
+        <v>110</v>
+      </c>
+      <c r="F93">
+        <v>155193</v>
+      </c>
+      <c r="G93">
+        <v>5750</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43949</v>
       </c>
+      <c r="B94" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>1144</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="85"/>
+        <v>163</v>
+      </c>
+      <c r="F94">
+        <v>156337</v>
+      </c>
+      <c r="G94">
+        <v>5913</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43950</v>
+      </c>
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>1304</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="85"/>
+        <v>202</v>
+      </c>
+      <c r="F95">
+        <v>157641</v>
+      </c>
+      <c r="G95">
+        <v>6115</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -27358,12 +30298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1A4762-5C9E-4F48-9FAD-966C3BF2612F}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:C84"/>
+    <sheetView topLeftCell="A87" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28956,1584 +31896,307 @@
       <c r="A85" s="1">
         <v>43938</v>
       </c>
+      <c r="B85" s="3" t="str">
+        <f t="shared" ref="B85:B86" si="71">IMSUB(F85,F84)</f>
+        <v>2623</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85:C86" si="72">IMSUB(G85,G84)</f>
+        <v>753</v>
+      </c>
+      <c r="F85">
+        <v>107778</v>
+      </c>
+      <c r="G85">
+        <v>17899</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43939</v>
       </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>385</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>760</v>
+      </c>
+      <c r="F86">
+        <v>108163</v>
+      </c>
+      <c r="G86">
+        <v>18659</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43940</v>
       </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" ref="B87" si="73">IMSUB(F87,F86)</f>
+        <v>2558</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" ref="C87" si="74">IMSUB(G87,G86)</f>
+        <v>635</v>
+      </c>
+      <c r="F87">
+        <v>110721</v>
+      </c>
+      <c r="G87">
+        <v>19294</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43941</v>
       </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" ref="B88:B89" si="75">IMSUB(F88,F87)</f>
+        <v>742</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" ref="C88:C89" si="76">IMSUB(G88,G87)</f>
+        <v>395</v>
+      </c>
+      <c r="F88">
+        <v>111463</v>
+      </c>
+      <c r="G88">
+        <v>19689</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43942</v>
       </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>2050</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>544</v>
+      </c>
+      <c r="F89">
+        <v>113513</v>
+      </c>
+      <c r="G89">
+        <v>20233</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43943</v>
       </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" ref="B90:B93" si="77">IMSUB(F90,F89)</f>
+        <v>2638</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" ref="C90:C93" si="78">IMSUB(G90,G89)</f>
+        <v>530</v>
+      </c>
+      <c r="F90">
+        <v>116151</v>
+      </c>
+      <c r="G90">
+        <v>20763</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43944</v>
       </c>
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>1810</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>544</v>
+      </c>
+      <c r="F91">
+        <v>117961</v>
+      </c>
+      <c r="G91">
+        <v>21307</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43945</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0338722F-2236-2B40-94C2-40F319AAA2AE}">
-  <dimension ref="A1:G90"/>
-  <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:C78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>IMSUB(F4,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>IMSUB(G4,G3)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B37" si="0">IMSUB(F5,F4)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C37" si="1">IMSUB(G5,G4)</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43867</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43873</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43878</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43879</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>13</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>16</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>23</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>36</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>39</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>51</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>89</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>118</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" ref="B38" si="2">IMSUB(F38,F37)</f>
-        <v>49</v>
-      </c>
-      <c r="C38" s="3" t="str">
-        <f t="shared" ref="C38" si="3">IMSUB(G38,G37)</f>
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>167</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" ref="B39" si="4">IMSUB(F39,F38)</f>
-        <v>43</v>
-      </c>
-      <c r="C39" s="3" t="str">
-        <f t="shared" ref="C39" si="5">IMSUB(G39,G38)</f>
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>210</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B40" s="3" t="str">
-        <f t="shared" ref="B40" si="6">IMSUB(F40,F39)</f>
-        <v>67</v>
-      </c>
-      <c r="C40" s="3" t="str">
-        <f t="shared" ref="C40" si="7">IMSUB(G40,G39)</f>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>277</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f t="shared" ref="B41" si="8">IMSUB(F41,F40)</f>
-        <v>46</v>
-      </c>
-      <c r="C41" s="3" t="str">
-        <f t="shared" ref="C41" si="9">IMSUB(G41,G40)</f>
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>323</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <f t="shared" ref="B42" si="10">IMSUB(F42,F41)</f>
-        <v>50</v>
-      </c>
-      <c r="C42" s="3" t="str">
-        <f t="shared" ref="C42" si="11">IMSUB(G42,G41)</f>
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>373</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B43" s="3" t="str">
-        <f t="shared" ref="B43" si="12">IMSUB(F43,F42)</f>
-        <v>87</v>
-      </c>
-      <c r="C43" s="3" t="str">
-        <f t="shared" ref="C43" si="13">IMSUB(G43,G42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>460</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B44" s="3" t="str">
-        <f t="shared" ref="B44" si="14">IMSUB(F44,F43)</f>
-        <v>134</v>
-      </c>
-      <c r="C44" s="3" t="str">
-        <f t="shared" ref="C44" si="15">IMSUB(G44,G43)</f>
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>594</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B45" s="3" t="str">
-        <f t="shared" ref="B45" si="16">IMSUB(F45,F44)</f>
-        <v>208</v>
-      </c>
-      <c r="C45" s="3" t="str">
-        <f t="shared" ref="C45" si="17">IMSUB(G45,G44)</f>
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>802</v>
-      </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B46" s="3" t="str">
-        <f t="shared" ref="B46" si="18">IMSUB(F46,F45)</f>
-        <v>342</v>
-      </c>
-      <c r="C46" s="3" t="str">
-        <f t="shared" ref="C46" si="19">IMSUB(G46,G45)</f>
-        <v>11</v>
-      </c>
-      <c r="F46">
-        <v>1144</v>
-      </c>
-      <c r="G46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B47" s="3" t="str">
-        <f t="shared" ref="B47" si="20">IMSUB(F47,F46)</f>
-        <v>251</v>
-      </c>
-      <c r="C47" s="3" t="str">
-        <f t="shared" ref="C47" si="21">IMSUB(G47,G46)</f>
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <v>1395</v>
-      </c>
-      <c r="G47">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" ref="B48" si="22">IMSUB(F48,F47)</f>
-        <v>152</v>
-      </c>
-      <c r="C48" s="3" t="str">
-        <f t="shared" ref="C48" si="23">IMSUB(G48,G47)</f>
-        <v>20</v>
-      </c>
-      <c r="F48">
-        <v>1547</v>
-      </c>
-      <c r="G48">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" ref="B49" si="24">IMSUB(F49,F48)</f>
-        <v>407</v>
-      </c>
-      <c r="C49" s="3" t="str">
-        <f t="shared" ref="C49" si="25">IMSUB(G49,G48)</f>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1954</v>
-      </c>
-      <c r="G49">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" ref="B50" si="26">IMSUB(F50,F49)</f>
-        <v>676</v>
-      </c>
-      <c r="C50" s="3" t="str">
-        <f t="shared" ref="C50" si="27">IMSUB(G50,G49)</f>
-        <v>48</v>
-      </c>
-      <c r="F50">
-        <v>2630</v>
-      </c>
-      <c r="G50">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" ref="B51" si="28">IMSUB(F51,F50)</f>
-        <v>647</v>
-      </c>
-      <c r="C51" s="3" t="str">
-        <f t="shared" ref="C51" si="29">IMSUB(G51,G50)</f>
-        <v>41</v>
-      </c>
-      <c r="F51">
-        <v>3277</v>
-      </c>
-      <c r="G51">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B52" s="3" t="str">
-        <f t="shared" ref="B52" si="30">IMSUB(F52,F51)</f>
-        <v>706</v>
-      </c>
-      <c r="C52" s="3" t="str">
-        <f t="shared" ref="C52" si="31">IMSUB(G52,G51)</f>
-        <v>33</v>
-      </c>
-      <c r="F52">
-        <v>3983</v>
-      </c>
-      <c r="G52">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" ref="B53" si="32">IMSUB(F53,F52)</f>
-        <v>1035</v>
-      </c>
-      <c r="C53" s="3" t="str">
-        <f t="shared" ref="C53" si="33">IMSUB(G53,G52)</f>
-        <v>56</v>
-      </c>
-      <c r="F53">
-        <v>5018</v>
-      </c>
-      <c r="G53">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" ref="B54" si="34">IMSUB(F54,F53)</f>
-        <v>669</v>
-      </c>
-      <c r="C54" s="3" t="str">
-        <f t="shared" ref="C54" si="35">IMSUB(G54,G53)</f>
-        <v>48</v>
-      </c>
-      <c r="F54">
-        <v>5687</v>
-      </c>
-      <c r="G54">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" ref="B55" si="36">IMSUB(F55,F54)</f>
-        <v>967</v>
-      </c>
-      <c r="C55" s="3" t="str">
-        <f t="shared" ref="C55" si="37">IMSUB(G55,G54)</f>
-        <v>54</v>
-      </c>
-      <c r="F55">
-        <v>6654</v>
-      </c>
-      <c r="G55">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" ref="B56" si="38">IMSUB(F56,F55)</f>
-        <v>1427</v>
-      </c>
-      <c r="C56" s="3" t="str">
-        <f t="shared" ref="C56" si="39">IMSUB(G56,G55)</f>
-        <v>87</v>
-      </c>
-      <c r="F56">
-        <v>8081</v>
-      </c>
-      <c r="G56">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" ref="B57" si="40">IMSUB(F57,F56)</f>
-        <v>1452</v>
-      </c>
-      <c r="C57" s="3" t="str">
-        <f t="shared" ref="C57" si="41">IMSUB(G57,G56)</f>
-        <v>41</v>
-      </c>
-      <c r="F57">
-        <v>9533</v>
-      </c>
-      <c r="G57">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B58" s="3" t="str">
-        <f t="shared" ref="B58" si="42">IMSUB(F58,F57)</f>
-        <v>2129</v>
-      </c>
-      <c r="C58" s="3" t="str">
-        <f t="shared" ref="C58" si="43">IMSUB(G58,G57)</f>
-        <v>115</v>
-      </c>
-      <c r="F58">
-        <v>11662</v>
-      </c>
-      <c r="G58">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B59" s="3" t="str">
-        <f t="shared" ref="B59" si="44">IMSUB(F59,F58)</f>
-        <v>2885</v>
-      </c>
-      <c r="C59" s="3" t="str">
-        <f t="shared" ref="C59" si="45">IMSUB(G59,G58)</f>
-        <v>181</v>
-      </c>
-      <c r="F59">
-        <v>14547</v>
-      </c>
-      <c r="G59">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B60" s="3" t="str">
-        <f t="shared" ref="B60" si="46">IMSUB(F60,F59)</f>
-        <v>2546</v>
-      </c>
-      <c r="C60" s="3" t="str">
-        <f t="shared" ref="C60" si="47">IMSUB(G60,G59)</f>
-        <v>260</v>
-      </c>
-      <c r="F60">
-        <v>17093</v>
-      </c>
-      <c r="G60">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B61" s="3" t="str">
-        <f t="shared" ref="B61" si="48">IMSUB(F61,F60)</f>
-        <v>2433</v>
-      </c>
-      <c r="C61" s="3" t="str">
-        <f t="shared" ref="C61" si="49">IMSUB(G61,G60)</f>
-        <v>209</v>
-      </c>
-      <c r="F61">
-        <v>19526</v>
-      </c>
-      <c r="G61">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B62" s="3" t="str">
-        <f t="shared" ref="B62" si="50">IMSUB(F62,F61)</f>
-        <v>2619</v>
-      </c>
-      <c r="C62" s="3" t="str">
-        <f t="shared" ref="C62" si="51">IMSUB(G62,G61)</f>
-        <v>180</v>
-      </c>
-      <c r="F62">
-        <v>22145</v>
-      </c>
-      <c r="G62">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B63" s="3" t="str">
-        <f t="shared" ref="B63" si="52">IMSUB(F63,F62)</f>
-        <v>3009</v>
-      </c>
-      <c r="C63" s="3" t="str">
-        <f t="shared" ref="C63" si="53">IMSUB(G63,G62)</f>
-        <v>381</v>
-      </c>
-      <c r="F63">
-        <v>25154</v>
-      </c>
-      <c r="G63">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B64" s="3" t="str">
-        <f t="shared" ref="B64" si="54">IMSUB(F64,F63)</f>
-        <v>4324</v>
-      </c>
-      <c r="C64" s="3" t="str">
-        <f t="shared" ref="C64" si="55">IMSUB(G64,G63)</f>
-        <v>743</v>
-      </c>
-      <c r="F64">
-        <v>29478</v>
-      </c>
-      <c r="G64">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B65" s="3" t="str">
-        <f t="shared" ref="B65" si="56">IMSUB(F65,F64)</f>
-        <v>4244</v>
-      </c>
-      <c r="C65" s="3" t="str">
-        <f t="shared" ref="C65" si="57">IMSUB(G65,G64)</f>
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>1622</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>516</v>
+      </c>
+      <c r="F92">
+        <v>119583</v>
+      </c>
+      <c r="G92">
+        <v>21823</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>1755</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="78"/>
         <v>389</v>
       </c>
-      <c r="F65">
-        <v>33722</v>
-      </c>
-      <c r="G65">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B66" s="3" t="str">
-        <f t="shared" ref="B66" si="58">IMSUB(F66,F65)</f>
-        <v>4450</v>
-      </c>
-      <c r="C66" s="3" t="str">
-        <f t="shared" ref="C66" si="59">IMSUB(G66,G65)</f>
-        <v>684</v>
-      </c>
-      <c r="F66">
-        <v>38172</v>
-      </c>
-      <c r="G66">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B67" s="3" t="str">
-        <f t="shared" ref="B67" si="60">IMSUB(F67,F66)</f>
-        <v>3735</v>
-      </c>
-      <c r="C67" s="3" t="str">
-        <f t="shared" ref="C67" si="61">IMSUB(G67,G66)</f>
-        <v>708</v>
-      </c>
-      <c r="F67">
-        <v>41907</v>
-      </c>
-      <c r="G67">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B68" s="3" t="str">
-        <f t="shared" ref="B68" si="62">IMSUB(F68,F67)</f>
-        <v>5903</v>
-      </c>
-      <c r="C68" s="3" t="str">
-        <f t="shared" ref="C68" si="63">IMSUB(G68,G67)</f>
-        <v>621</v>
-      </c>
-      <c r="F68">
-        <v>47810</v>
-      </c>
-      <c r="G68">
-        <v>4934</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B69" s="3" t="str">
-        <f t="shared" ref="B69" si="64">IMSUB(F69,F68)</f>
-        <v>3802</v>
-      </c>
-      <c r="C69" s="3" t="str">
-        <f t="shared" ref="C69" si="65">IMSUB(G69,G68)</f>
-        <v>439</v>
-      </c>
-      <c r="F69">
-        <v>51612</v>
-      </c>
-      <c r="G69">
-        <v>5373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B70" s="3" t="str">
-        <f t="shared" ref="B70" si="66">IMSUB(F70,F69)</f>
-        <v>3634</v>
-      </c>
-      <c r="C70" s="3" t="str">
-        <f t="shared" ref="C70" si="67">IMSUB(G70,G69)</f>
-        <v>786</v>
-      </c>
-      <c r="F70">
-        <v>55246</v>
-      </c>
-      <c r="G70">
-        <v>6159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B71" s="3" t="str">
-        <f t="shared" ref="B71" si="68">IMSUB(F71,F70)</f>
-        <v>5491</v>
-      </c>
-      <c r="C71" s="3" t="str">
-        <f t="shared" ref="C71" si="69">IMSUB(G71,G70)</f>
-        <v>938</v>
-      </c>
-      <c r="F71">
-        <v>60737</v>
-      </c>
-      <c r="G71">
-        <v>7097</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B72" s="3" t="str">
-        <f>IMSUB(F72,F71)</f>
-        <v>4344</v>
-      </c>
-      <c r="C72" s="3" t="str">
-        <f>IMSUB(G72,G71)</f>
-        <v>881</v>
-      </c>
-      <c r="F72">
-        <v>65081</v>
-      </c>
-      <c r="G72">
-        <v>7978</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B73" s="3" t="str">
-        <f t="shared" ref="B73" si="70">IMSUB(F73,F72)</f>
-        <v>5195</v>
-      </c>
-      <c r="C73" s="3" t="str">
-        <f t="shared" ref="C73" si="71">IMSUB(G73,G72)</f>
-        <v>980</v>
-      </c>
-      <c r="F73">
-        <v>70276</v>
-      </c>
-      <c r="G73">
-        <v>8958</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B74" s="3" t="str">
-        <f>IMSUB(F74,F73)</f>
-        <v>8719</v>
-      </c>
-      <c r="C74" s="3" t="str">
-        <f>IMSUB(G74,G73)</f>
-        <v>917</v>
-      </c>
-      <c r="F74">
-        <v>78995</v>
-      </c>
-      <c r="G74">
-        <v>9875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B75" s="3" t="str">
-        <f t="shared" ref="B75:B76" si="72">IMSUB(F75,F74)</f>
-        <v>5288</v>
-      </c>
-      <c r="C75" s="3" t="str">
-        <f t="shared" ref="C75:C76" si="73">IMSUB(G75,G74)</f>
-        <v>737</v>
-      </c>
-      <c r="F75">
-        <v>84283</v>
-      </c>
-      <c r="G75">
-        <v>10612</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B76" s="3" t="str">
-        <f t="shared" si="72"/>
-        <v>4342</v>
-      </c>
-      <c r="C76" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>717</v>
-      </c>
-      <c r="F76">
-        <v>88625</v>
-      </c>
-      <c r="G76">
-        <v>11329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B77" s="3" t="str">
-        <f t="shared" ref="B77:B78" si="74">IMSUB(F77,F76)</f>
-        <v>5252</v>
-      </c>
-      <c r="C77" s="3" t="str">
-        <f t="shared" ref="C77:C78" si="75">IMSUB(G77,G76)</f>
-        <v>778</v>
-      </c>
-      <c r="F77">
-        <v>93877</v>
-      </c>
-      <c r="G77">
-        <v>12107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B78" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>4603</v>
-      </c>
-      <c r="C78" s="3" t="str">
-        <f t="shared" si="75"/>
-        <v>761</v>
-      </c>
-      <c r="F78">
-        <v>98480</v>
-      </c>
-      <c r="G78">
-        <v>12868</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43938</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43939</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>43942</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>43943</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>43944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>43945</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>43946</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="F93">
+        <v>121338</v>
+      </c>
+      <c r="G93">
+        <v>22212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="B94" s="3" t="str">
+        <f t="shared" ref="B94:B97" si="79">IMSUB(F94,F93)</f>
+        <v>1537</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" ref="C94:C97" si="80">IMSUB(G94,G93)</f>
+        <v>368</v>
+      </c>
+      <c r="F94">
+        <v>122875</v>
+      </c>
+      <c r="G94">
+        <v>22580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>404</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>241</v>
+      </c>
+      <c r="F95">
+        <v>123279</v>
+      </c>
+      <c r="G95">
+        <v>22821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>43949</v>
+      </c>
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>3729</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>440</v>
+      </c>
+      <c r="F96">
+        <v>127008</v>
+      </c>
+      <c r="G96">
+        <v>23261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B97" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>-1544</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>366</v>
+      </c>
+      <c r="F97">
+        <v>125464</v>
+      </c>
+      <c r="G97">
+        <v>23627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43962</v>
       </c>
     </row>
   </sheetData>
@@ -30546,8 +32209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C32909D-5E29-164D-9163-CD8136A5EF28}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:C80"/>
+    <sheetView topLeftCell="A91" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32026,11 +33689,11 @@
         <v>43936</v>
       </c>
       <c r="B79" s="3" t="str">
-        <f t="shared" ref="B79:B80" si="62">IMSUB(F79,F78)</f>
+        <f t="shared" ref="B79" si="62">IMSUB(F79,F78)</f>
         <v>1076</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f t="shared" ref="C79:C80" si="63">IMSUB(G79,G78)</f>
+        <f t="shared" ref="C79" si="63">IMSUB(G79,G78)</f>
         <v>38</v>
       </c>
       <c r="F79">
@@ -32045,11 +33708,11 @@
         <v>43937</v>
       </c>
       <c r="B80" s="3" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="B80:B83" si="64">IMSUB(F80,F79)</f>
         <v>941</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="C80:C83" si="65">IMSUB(G80,G79)</f>
         <v>37</v>
       </c>
       <c r="F80">
@@ -32059,82 +33722,264 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43938</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>1007</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>23</v>
+      </c>
+      <c r="F81">
+        <v>13387</v>
+      </c>
+      <c r="G81">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43939</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>991</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>43</v>
+      </c>
+      <c r="F82">
+        <v>14378</v>
+      </c>
+      <c r="G82">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43940</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>1334</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>27</v>
+      </c>
+      <c r="F83">
+        <v>15712</v>
+      </c>
+      <c r="G83">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43941</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="str">
+        <f t="shared" ref="B84:B85" si="66">IMSUB(F84,F83)</f>
+        <v>1553</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" ref="C84:C85" si="67">IMSUB(G84,G83)</f>
+        <v>36</v>
+      </c>
+      <c r="F84">
+        <v>17265</v>
+      </c>
+      <c r="G84">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43942</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>1336</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>47</v>
+      </c>
+      <c r="F85">
+        <v>18601</v>
+      </c>
+      <c r="G85">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43943</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="str">
+        <f t="shared" ref="B86:B89" si="68">IMSUB(F86,F85)</f>
+        <v>1383</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" ref="C86:C89" si="69">IMSUB(G86,G85)</f>
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>19984</v>
+      </c>
+      <c r="G86">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43944</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>1409</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>41</v>
+      </c>
+      <c r="F87">
+        <v>21393</v>
+      </c>
+      <c r="G87">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43945</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>1684</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>37</v>
+      </c>
+      <c r="F88">
+        <v>23077</v>
+      </c>
+      <c r="G88">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>1429</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>57</v>
+      </c>
+      <c r="F89">
+        <v>24506</v>
+      </c>
+      <c r="G89">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="str">
+        <f t="shared" ref="B90:B93" si="70">IMSUB(F90,F89)</f>
+        <v>1990</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" ref="C90:C93" si="71">IMSUB(G90,G89)</f>
+        <v>49</v>
+      </c>
+      <c r="F90">
+        <v>26496</v>
+      </c>
+      <c r="G90">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>1396</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>48</v>
+      </c>
+      <c r="F91">
+        <v>27892</v>
+      </c>
+      <c r="G91">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>1543</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>62</v>
+      </c>
+      <c r="F92">
+        <v>29435</v>
+      </c>
+      <c r="G92">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>1897</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>73</v>
+      </c>
+      <c r="F93">
+        <v>31332</v>
+      </c>
+      <c r="G93">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
@@ -32364,8 +34209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC88DB6-9092-AA40-8E94-D18A303167DE}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C57" sqref="B57:C59"/>
+    <sheetView topLeftCell="A65" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33480,103 +35325,285 @@
       <c r="A60" s="1">
         <v>43938</v>
       </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" ref="B60:B61" si="65">IMSUB(F60,F59)</f>
+        <v>1606</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" ref="C60:C61" si="66">IMSUB(G60,G59)</f>
+        <v>92</v>
+      </c>
+      <c r="F60">
+        <v>77995</v>
+      </c>
+      <c r="G60">
+        <v>4869</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43939</v>
       </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>1499</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>89</v>
+      </c>
+      <c r="F61">
+        <v>79494</v>
+      </c>
+      <c r="G61">
+        <v>4958</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43940</v>
       </c>
+      <c r="B62" s="3" t="str">
+        <f t="shared" ref="B62" si="67">IMSUB(F62,F61)</f>
+        <v>1374</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" ref="C62" si="68">IMSUB(G62,G61)</f>
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>80868</v>
+      </c>
+      <c r="G62">
+        <v>5031</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43941</v>
       </c>
+      <c r="B63" s="3" t="str">
+        <f t="shared" ref="B63:B64" si="69">IMSUB(F63,F62)</f>
+        <v>1343</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" ref="C63:C64" si="70">IMSUB(G63,G62)</f>
+        <v>87</v>
+      </c>
+      <c r="F63">
+        <v>82211</v>
+      </c>
+      <c r="G63">
+        <v>5118</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43942</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>1294</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>91</v>
+      </c>
+      <c r="F64">
+        <v>83505</v>
+      </c>
+      <c r="G64">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43943</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="str">
+        <f t="shared" ref="B65:B68" si="71">IMSUB(F65,F64)</f>
+        <v>1297</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" ref="C65:C68" si="72">IMSUB(G65,G64)</f>
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <v>84802</v>
+      </c>
+      <c r="G65">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43944</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>1194</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>112</v>
+      </c>
+      <c r="F66">
+        <v>85996</v>
+      </c>
+      <c r="G66">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43945</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>1030</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>90</v>
+      </c>
+      <c r="F67">
+        <v>87026</v>
+      </c>
+      <c r="G67">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>1168</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>93</v>
+      </c>
+      <c r="F68">
+        <v>88194</v>
+      </c>
+      <c r="G68">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="str">
+        <f t="shared" ref="B69:B72" si="73">IMSUB(F69,F68)</f>
+        <v>1134</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f t="shared" ref="C69:C72" si="74">IMSUB(G69,G68)</f>
+        <v>76</v>
+      </c>
+      <c r="F69">
+        <v>89328</v>
+      </c>
+      <c r="G69">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>1153</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>60</v>
+      </c>
+      <c r="F70">
+        <v>90481</v>
+      </c>
+      <c r="G70">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>991</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>96</v>
+      </c>
+      <c r="F71">
+        <v>91472</v>
+      </c>
+      <c r="G71">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>1112</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>71</v>
+      </c>
+      <c r="F72">
+        <v>92584</v>
+      </c>
+      <c r="G72">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43952</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43955</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43956</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43958</v>
       </c>
